--- a/Fase III - Construcción y Evolución/2. Reportes de Problemas/PR01.xlsx
+++ b/Fase III - Construcción y Evolución/2. Reportes de Problemas/PR01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelfi\Downloads\X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Fase III - Construcción y Evolución\2. Reportes de Problemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6313865A-5B2A-4CD7-87A6-AE4A3D8F6652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD940A1-139B-46A8-AAB0-FA39776264A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAACD53E-982C-4521-B07F-7DC6290E23F5}"/>
   </bookViews>
   <sheets>
     <sheet name="PR01" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Reporte de Problema</t>
   </si>
@@ -72,6 +70,15 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>La validación actual no cubre todos los caracteres especiales, lo que impide su correcta traducción al Braille. Esto se debe a una falta de reglas adecuadas para estos símbolos en el sistema. Lo que se genera errores de calidad en la traducción.</t>
+  </si>
+  <si>
+    <t>Se debe ampliar la validación para incluir todos los caracteres especiales y actualizar el motor de traducción. Esto garantizará que cada símbolo sea procesado y traducido correctamente al Braille.</t>
+  </si>
+  <si>
+    <t>Es fundamental realizar pruebas exhaustivas para asegurar que los cambios funcionan correctamente.</t>
   </si>
 </sst>
 </file>
@@ -348,15 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -404,6 +402,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,20 +748,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FE003-EC98-4A86-B2EA-4D484F117E75}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:8" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:8">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -764,7 +771,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="17.399999999999999">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -793,12 +800,12 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8">
@@ -814,12 +821,12 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8">
@@ -839,40 +846,40 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="4"/>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="4"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="4"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8">
@@ -888,20 +895,22 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
+      <c r="C20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8">
@@ -922,20 +931,22 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
+      <c r="C24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8">
@@ -955,14 +966,16 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1">
+    <row r="29" spans="2:8" ht="14.4" thickBot="1">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
